--- a/ES/Spain_osa.xlsx
+++ b/ES/Spain_osa.xlsx
@@ -49,9 +49,6 @@
     <t>Castile-La Mancha</t>
   </si>
   <si>
-    <t>Castille and Leon</t>
-  </si>
-  <si>
     <t>Catalonia</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>POPGPW_2005_40</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>sum_Castile-La Mancha</t>
   </si>
   <si>
-    <t>sum_Castille and Leon</t>
-  </si>
-  <si>
     <t>sum_Catalonia</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>sum_Navarre</t>
+  </si>
+  <si>
+    <t>sum_Spain</t>
   </si>
   <si>
     <t>sum_Valencia</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,13 +715,13 @@
     </row>
     <row r="2" spans="1:56">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C2" s="2">
-        <v>39280</v>
+        <v>39188</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -775,25 +775,25 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>918.0077490153642</v>
       </c>
       <c r="V2">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Y2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="AX2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="b">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="BB2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="b">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="3" spans="1:56">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C3" s="2">
-        <v>39322</v>
+        <v>39265</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -945,25 +945,25 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>402.9882603571369</v>
       </c>
       <c r="V3">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="AX3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="b">
         <v>1</v>
       </c>
       <c r="AZ3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" t="b">
         <v>1</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C4" s="2">
-        <v>39407</v>
+        <v>39559</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1115,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1404.18</v>
       </c>
       <c r="V4">
-        <v>22.36701426319087</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="b">
         <v>1</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="C5" s="2">
-        <v>39513</v>
+        <v>39798</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>102.6818565400595</v>
       </c>
       <c r="V5">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="AX5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="b">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="BC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="b">
         <v>1</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C6" s="2">
-        <v>39758</v>
+        <v>39839</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V6">
-        <v>22.36701426319087</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1542,36 +1542,36 @@
         <v>0</v>
       </c>
       <c r="AX6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" t="b">
         <v>1</v>
       </c>
       <c r="BB6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>925</v>
+        <v>881</v>
       </c>
       <c r="C7" s="2">
-        <v>40086</v>
+        <v>39867</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V7">
-        <v>22.36701426319087</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="b">
         <v>1</v>
       </c>
       <c r="BB7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" t="b">
         <v>1</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>927</v>
+        <v>884</v>
       </c>
       <c r="C8" s="2">
-        <v>40088</v>
+        <v>40024</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1795,25 +1795,25 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>936.12</v>
       </c>
       <c r="V8">
-        <v>22.36701426319087</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y8">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1873,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="b">
         <v>1</v>
@@ -1891,27 +1891,27 @@
         <v>1</v>
       </c>
       <c r="BA8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:56">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="C9" s="2">
-        <v>40113</v>
+        <v>40035</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>102.6818565400595</v>
       </c>
       <c r="V9">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>1</v>
       </c>
       <c r="AY9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="b">
         <v>1</v>
       </c>
       <c r="BA9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="b">
         <v>1</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>933</v>
+        <v>890</v>
       </c>
       <c r="C10" s="2">
-        <v>40137</v>
+        <v>40094</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V10">
-        <v>240.7543261495708</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>23</v>
+        <v>205.92</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2222,36 +2222,36 @@
         <v>0</v>
       </c>
       <c r="AX10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="b">
         <v>0</v>
       </c>
       <c r="BC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>941</v>
+        <v>893</v>
       </c>
       <c r="C11" s="2">
-        <v>40351</v>
+        <v>40353</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2305,25 +2305,25 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V11">
-        <v>44.73402852638173</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y11">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="AZ11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" t="b">
         <v>1</v>
       </c>
       <c r="BB11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" t="b">
         <v>1</v>
@@ -2415,79 +2415,79 @@
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>896</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40591</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>12.85662112945113</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>947</v>
-      </c>
-      <c r="C12" s="2">
-        <v>40624</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>22.36701426319087</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>52</v>
-      </c>
       <c r="Y12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2553,22 +2553,22 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="b">
         <v>0</v>
       </c>
       <c r="AZ12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" t="b">
         <v>0</v>
@@ -2577,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="BC12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="C13" s="2">
-        <v>40732</v>
+        <v>40963</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>306.0025830051214</v>
       </c>
       <c r="V13">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Y13">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="AX13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="b">
         <v>0</v>
       </c>
       <c r="AZ13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" t="b">
         <v>1</v>
@@ -2755,16 +2755,16 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>959</v>
+        <v>901</v>
       </c>
       <c r="C14" s="2">
-        <v>40973</v>
+        <v>41152</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2815,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>301.1519063268109</v>
       </c>
       <c r="V14">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="Y14">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AX14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="b">
         <v>1</v>
@@ -2914,10 +2914,10 @@
         <v>1</v>
       </c>
       <c r="BB14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="b">
         <v>1</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>962</v>
+        <v>903</v>
       </c>
       <c r="C15" s="2">
-        <v>41029</v>
+        <v>41281</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2985,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V15">
-        <v>22.36701426319087</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" t="b">
         <v>0</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>972</v>
+        <v>906</v>
       </c>
       <c r="C16" s="2">
-        <v>41358</v>
+        <v>41479</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2340.3</v>
       </c>
       <c r="V16">
-        <v>67.1010427895726</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y16">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3245,19 +3245,19 @@
         <v>1</v>
       </c>
       <c r="AY16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="b">
         <v>0</v>
       </c>
       <c r="BB16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="b">
         <v>1</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>981</v>
+        <v>909</v>
       </c>
       <c r="C17" s="2">
-        <v>41512</v>
+        <v>41813</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3325,25 +3325,25 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>136.3516830451482</v>
       </c>
       <c r="V17">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="BA17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" t="b">
         <v>0</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>986</v>
+        <v>912</v>
       </c>
       <c r="C18" s="2">
-        <v>41625</v>
+        <v>42031</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3495,25 +3495,25 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1404.18</v>
       </c>
       <c r="V18">
-        <v>22.36701426319087</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="BB18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" t="b">
         <v>1</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="C19" s="2">
-        <v>41641</v>
+        <v>42625</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3665,19 +3665,19 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>468.06</v>
       </c>
       <c r="V19">
-        <v>22.36701426319087</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>52</v>
+        <v>205.92</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3752,36 +3752,36 @@
         <v>0</v>
       </c>
       <c r="AX19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" t="b">
         <v>1</v>
       </c>
       <c r="BA19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="b">
         <v>1</v>
       </c>
       <c r="BD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1004</v>
+        <v>918</v>
       </c>
       <c r="C20" s="2">
-        <v>41981</v>
+        <v>42968</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3835,25 +3835,25 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>345.5389309883914</v>
       </c>
       <c r="V20">
-        <v>22.36701426319087</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="Y20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3922,36 +3922,36 @@
         <v>0</v>
       </c>
       <c r="AX20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="b">
         <v>1</v>
       </c>
       <c r="BA20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" t="b">
         <v>1</v>
       </c>
       <c r="BC20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1007</v>
+        <v>921</v>
       </c>
       <c r="C21" s="2">
-        <v>42135</v>
+        <v>43025</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>655.1066290034306</v>
       </c>
       <c r="V21">
-        <v>240.7543261495708</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AX21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="b">
         <v>0</v>
@@ -4101,526 +4101,16 @@
         <v>0</v>
       </c>
       <c r="BA21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56">
-      <c r="A22" s="1">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>1042</v>
-      </c>
-      <c r="C22" s="2">
-        <v>42702</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>22.36701426319087</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>52</v>
-      </c>
-      <c r="Y22">
-        <v>30</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56">
-      <c r="A23" s="1">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>1048</v>
-      </c>
-      <c r="C23" s="2">
-        <v>42726</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>22.36701426319087</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>52</v>
-      </c>
-      <c r="Y23">
-        <v>18</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56">
-      <c r="A24" s="1">
-        <v>67</v>
-      </c>
-      <c r="B24">
-        <v>1061</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43053</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>44.73402852638173</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>52</v>
-      </c>
-      <c r="Y24">
-        <v>60</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ES/Spain_osa.xlsx
+++ b/ES/Spain_osa.xlsx
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +721,7 @@
         <v>867</v>
       </c>
       <c r="C2" s="2">
-        <v>39188</v>
+        <v>39265</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -775,25 +775,25 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>918.0077490153642</v>
+        <v>201.4941301785684</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="AY2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="b">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>870</v>
       </c>
       <c r="C3" s="2">
-        <v>39265</v>
+        <v>39559</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -945,25 +945,25 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>402.9882603571369</v>
+        <v>468.06</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>92</v>
+        <v>205.92</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="AX3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="b">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C4" s="2">
-        <v>39559</v>
+        <v>39778</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1115,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1404.18</v>
+        <v>88.2428185809563</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>205.92</v>
+        <v>171</v>
       </c>
       <c r="Y4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="AX4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="b">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="BA4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" t="b">
         <v>0</v>
       </c>
       <c r="BC4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:56">
@@ -1297,7 +1297,7 @@
         <v>34</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>878</v>
       </c>
       <c r="C6" s="2">
-        <v>39839</v>
+        <v>39867</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>205.92</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AX6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="b">
         <v>1</v>
@@ -1557,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="BC6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:56">
@@ -1571,7 +1571,7 @@
         <v>881</v>
       </c>
       <c r="C7" s="2">
-        <v>39867</v>
+        <v>40023</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="b">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C8" s="2">
         <v>40024</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="b">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C9" s="2">
         <v>40035</v>
@@ -2078,10 +2078,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C10" s="2">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>205.92</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2222,25 +2222,25 @@
         <v>0</v>
       </c>
       <c r="AX10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="b">
         <v>0</v>
       </c>
       <c r="BC10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:56">
@@ -2248,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C11" s="2">
         <v>40353</v>
@@ -2418,16 +2418,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C12" s="2">
-        <v>40591</v>
+        <v>41152</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>12.85662112945113</v>
+        <v>602.3038126536218</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2565,22 +2565,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="b">
         <v>0</v>
       </c>
       <c r="BD12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:56">
@@ -2588,10 +2588,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C13" s="2">
-        <v>40963</v>
+        <v>41281</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>306.0025830051214</v>
+        <v>468.06</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>24</v>
+        <v>205.92</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="AX13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="b">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="b">
         <v>1</v>
@@ -2758,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C14" s="2">
-        <v>41152</v>
+        <v>41352</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>301.1519063268109</v>
+        <v>93.54212914999636</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="AX14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" t="b">
         <v>1</v>
       </c>
       <c r="AZ14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="b">
         <v>1</v>
@@ -2928,13 +2928,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C15" s="2">
-        <v>41281</v>
+        <v>42566</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>468.06</v>
+        <v>93.54212914999636</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>205.92</v>
+        <v>26</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -3078,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="b">
         <v>0</v>
       </c>
       <c r="BB15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="b">
         <v>1</v>
@@ -3098,10 +3098,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C16" s="2">
-        <v>41479</v>
+        <v>43025</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>2340.3</v>
+        <v>468.06</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>205.92</v>
       </c>
       <c r="Y16">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3242,25 +3242,25 @@
         <v>0</v>
       </c>
       <c r="AX16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="b">
         <v>0</v>
       </c>
       <c r="BA16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="b">
         <v>0</v>
       </c>
       <c r="BD16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:56">
@@ -3268,13 +3268,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C17" s="2">
-        <v>41813</v>
+        <v>43069</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>136.3516830451482</v>
+        <v>93.54212914999636</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3412,16 +3412,16 @@
         <v>0</v>
       </c>
       <c r="AX17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" t="b">
         <v>0</v>
       </c>
       <c r="BA17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="b">
         <v>0</v>
@@ -3431,686 +3431,6 @@
       </c>
       <c r="BD17" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>912</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42031</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>1404.18</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>205.92</v>
-      </c>
-      <c r="Y18">
-        <v>20</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>3</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>915</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42625</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>468.06</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>205.92</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>918</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42968</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>345.5389309883914</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>144</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>921</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43025</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>655.1066290034306</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>255</v>
-      </c>
-      <c r="Y21">
-        <v>41</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>2</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
